--- a/data/trans_bre/P34_R-Provincia-trans_bre.xlsx
+++ b/data/trans_bre/P34_R-Provincia-trans_bre.xlsx
@@ -660,28 +660,28 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>-22.81779545149129</v>
+        <v>-23.05674762309548</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>-9.78150442966332</v>
+        <v>-10.86884355526361</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>-15.25000397436204</v>
+        <v>-14.48184649181076</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>0.1238257371291473</v>
+        <v>0.6560000084549864</v>
       </c>
       <c r="G5" s="6" t="n">
-        <v>-0.4528561335154349</v>
+        <v>-0.4497015622082173</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>-0.2985276927144601</v>
+        <v>-0.3244368744823565</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>-0.4103544792058722</v>
+        <v>-0.3933960224034176</v>
       </c>
       <c r="J5" s="6" t="n">
-        <v>-0.0001658096116243509</v>
+        <v>0.01105461667322876</v>
       </c>
     </row>
     <row r="6">
@@ -692,28 +692,28 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>-5.356370560034626</v>
+        <v>-6.685391586184769</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>5.593065720004152</v>
+        <v>5.536804833605427</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>0.7753086812432203</v>
+        <v>1.085649361887189</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>15.442858187461</v>
+        <v>15.03716851272516</v>
       </c>
       <c r="G6" s="6" t="n">
-        <v>-0.1345351987098052</v>
+        <v>-0.1604091357825563</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>0.2282115225633571</v>
+        <v>0.2206180056416139</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>0.02683319156601925</v>
+        <v>0.03488753319117302</v>
       </c>
       <c r="J6" s="6" t="n">
-        <v>0.2964905984553091</v>
+        <v>0.2828267569863189</v>
       </c>
     </row>
     <row r="7">
@@ -737,7 +737,7 @@
         <v>2.74480315773219</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>-1.327757323351888</v>
+        <v>-1.327757323351891</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>-0.2352706612388745</v>
@@ -749,7 +749,7 @@
         <v>0.1090378874215561</v>
       </c>
       <c r="J7" s="6" t="n">
-        <v>-0.0557121473061855</v>
+        <v>-0.0557121473061856</v>
       </c>
     </row>
     <row r="8">
@@ -760,28 +760,28 @@
         </is>
       </c>
       <c r="C8" s="5" t="n">
-        <v>-14.55208072719177</v>
+        <v>-14.70008172622709</v>
       </c>
       <c r="D8" s="5" t="n">
-        <v>-3.279643367635378</v>
+        <v>-3.503390051949786</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>-2.766668832286745</v>
+        <v>-3.324773420862408</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>-6.914384326095472</v>
+        <v>-7.983453909066387</v>
       </c>
       <c r="G8" s="6" t="n">
-        <v>-0.3609341053187726</v>
+        <v>-0.3606746047135867</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>-0.08518469772986402</v>
+        <v>-0.0923405363893217</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>-0.09823200619023752</v>
+        <v>-0.1237576789544495</v>
       </c>
       <c r="J8" s="6" t="n">
-        <v>-0.2480623191507693</v>
+        <v>-0.2823536449041764</v>
       </c>
     </row>
     <row r="9">
@@ -792,28 +792,28 @@
         </is>
       </c>
       <c r="C9" s="5" t="n">
-        <v>-2.531425599462179</v>
+        <v>-3.042097295445922</v>
       </c>
       <c r="D9" s="5" t="n">
-        <v>8.934861301634662</v>
+        <v>9.10166358017841</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>8.766212943437187</v>
+        <v>8.470788261406218</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>4.244367532596259</v>
+        <v>3.683835686902173</v>
       </c>
       <c r="G9" s="6" t="n">
-        <v>-0.07717867735059486</v>
+        <v>-0.08912506690148106</v>
       </c>
       <c r="H9" s="6" t="n">
-        <v>0.2930405122982757</v>
+        <v>0.2915157703495214</v>
       </c>
       <c r="I9" s="6" t="n">
-        <v>0.392725597260444</v>
+        <v>0.3804642775783988</v>
       </c>
       <c r="J9" s="6" t="n">
-        <v>0.2291802458923733</v>
+        <v>0.1797028446715055</v>
       </c>
     </row>
     <row r="10">
@@ -849,7 +849,7 @@
         <v>-0.1923442320909692</v>
       </c>
       <c r="J10" s="6" t="n">
-        <v>-0.2279707850682546</v>
+        <v>-0.2279707850682545</v>
       </c>
     </row>
     <row r="11">
@@ -860,28 +860,28 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>-14.92906092509285</v>
+        <v>-13.48625060564108</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>-8.241361815582662</v>
+        <v>-8.256281687373097</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>-14.14542706042492</v>
+        <v>-14.70621813723392</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>-16.18596538675243</v>
+        <v>-16.08342873966512</v>
       </c>
       <c r="G11" s="6" t="n">
-        <v>-0.304441597665974</v>
+        <v>-0.284573390754392</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>-0.2667893591248264</v>
+        <v>-0.271526811939936</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>-0.3368058515110146</v>
+        <v>-0.3353756885851324</v>
       </c>
       <c r="J11" s="6" t="n">
-        <v>-0.3724833015019749</v>
+        <v>-0.3708304002377157</v>
       </c>
     </row>
     <row r="12">
@@ -892,28 +892,28 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>1.269042927161809</v>
+        <v>1.633744695631852</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>4.84622062896438</v>
+        <v>5.471108171202069</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>-0.1518716109078471</v>
+        <v>0.2855416405250954</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>-2.068023492164059</v>
+        <v>-2.337944771515444</v>
       </c>
       <c r="G12" s="6" t="n">
-        <v>0.03063442098343561</v>
+        <v>0.03684451943222503</v>
       </c>
       <c r="H12" s="6" t="n">
-        <v>0.2178891664029927</v>
+        <v>0.2380989254776259</v>
       </c>
       <c r="I12" s="6" t="n">
-        <v>-0.01124336961709619</v>
+        <v>0.009362213956077624</v>
       </c>
       <c r="J12" s="6" t="n">
-        <v>-0.05660675729488303</v>
+        <v>-0.06697579049041751</v>
       </c>
     </row>
     <row r="13">
@@ -937,7 +937,7 @@
         <v>-10.52005979779601</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>-8.483546268030748</v>
+        <v>-8.48354626803075</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>-0.1817982026675588</v>
@@ -960,28 +960,28 @@
         </is>
       </c>
       <c r="C14" s="5" t="n">
-        <v>-15.61506379478944</v>
+        <v>-14.79967572091765</v>
       </c>
       <c r="D14" s="5" t="n">
-        <v>-4.99183556440267</v>
+        <v>-4.681323177308638</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>-17.29662460110658</v>
+        <v>-16.670548287885</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>-15.64211014912826</v>
+        <v>-15.3737276271844</v>
       </c>
       <c r="G14" s="6" t="n">
-        <v>-0.3217575310351068</v>
+        <v>-0.3113690936866369</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>-0.1767333759733546</v>
+        <v>-0.1731438739974683</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>-0.4278533176439978</v>
+        <v>-0.4217666621608043</v>
       </c>
       <c r="J14" s="6" t="n">
-        <v>-0.4248335648181596</v>
+        <v>-0.4202682391714535</v>
       </c>
     </row>
     <row r="15">
@@ -992,28 +992,28 @@
         </is>
       </c>
       <c r="C15" s="5" t="n">
-        <v>-0.8350314308044593</v>
+        <v>-0.9618977910234666</v>
       </c>
       <c r="D15" s="5" t="n">
-        <v>8.207052219382669</v>
+        <v>8.157820329578378</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>-2.51851848542746</v>
+        <v>-3.107303990303535</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>-0.7685932962375888</v>
+        <v>-0.8019171214337395</v>
       </c>
       <c r="G15" s="6" t="n">
-        <v>-0.02329163449850452</v>
+        <v>-0.02216936447764407</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>0.3812123480526401</v>
+        <v>0.3822787077790585</v>
       </c>
       <c r="I15" s="6" t="n">
-        <v>-0.07777405085864536</v>
+        <v>-0.09130948439319729</v>
       </c>
       <c r="J15" s="6" t="n">
-        <v>-0.02372062485492768</v>
+        <v>-0.03235571437334996</v>
       </c>
     </row>
     <row r="16">
@@ -1037,7 +1037,7 @@
         <v>-0.1173478287455232</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>-0.5425358516770534</v>
+        <v>-0.5425358516770618</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>-0.1229897921746362</v>
@@ -1049,7 +1049,7 @@
         <v>-0.006102253989696647</v>
       </c>
       <c r="J16" s="6" t="n">
-        <v>-0.03460529837098038</v>
+        <v>-0.03460529837098091</v>
       </c>
     </row>
     <row r="17">
@@ -1060,28 +1060,28 @@
         </is>
       </c>
       <c r="C17" s="5" t="n">
-        <v>-10.45368349641669</v>
+        <v>-10.23905349870591</v>
       </c>
       <c r="D17" s="5" t="n">
-        <v>-12.58000768548302</v>
+        <v>-12.91412741500018</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>-7.612559775361809</v>
+        <v>-7.699318584279763</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>-6.387186855319182</v>
+        <v>-6.063435988525616</v>
       </c>
       <c r="G17" s="6" t="n">
-        <v>-0.4134229499578831</v>
+        <v>-0.4114024723943251</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>-0.3252932321043631</v>
+        <v>-0.331051647722412</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>-0.3598730642551425</v>
+        <v>-0.3430132797720935</v>
       </c>
       <c r="J17" s="6" t="n">
-        <v>-0.334360829318955</v>
+        <v>-0.3106481387567928</v>
       </c>
     </row>
     <row r="18">
@@ -1092,28 +1092,28 @@
         </is>
       </c>
       <c r="C18" s="5" t="n">
-        <v>5.269386070077425</v>
+        <v>5.48773316789436</v>
       </c>
       <c r="D18" s="5" t="n">
-        <v>5.36639549003497</v>
+        <v>6.281868638421837</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>7.37342830020146</v>
+        <v>6.937891050571767</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>4.53289154839846</v>
+        <v>4.678134065534994</v>
       </c>
       <c r="G18" s="6" t="n">
-        <v>0.304402732942046</v>
+        <v>0.3246448725671325</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>0.1797353418984651</v>
+        <v>0.2168643526151509</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>0.4772384854464554</v>
+        <v>0.4298018889398813</v>
       </c>
       <c r="J18" s="6" t="n">
-        <v>0.3798465283882141</v>
+        <v>0.4016545730811702</v>
       </c>
     </row>
     <row r="19">
@@ -1137,7 +1137,7 @@
         <v>-9.613004415046916</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>6.535591892638958</v>
+        <v>6.535591892638942</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>-0.07043844087135889</v>
@@ -1149,7 +1149,7 @@
         <v>-0.2417599122722597</v>
       </c>
       <c r="J19" s="6" t="n">
-        <v>0.19698098369176</v>
+        <v>0.1969809836917595</v>
       </c>
     </row>
     <row r="20">
@@ -1160,28 +1160,28 @@
         </is>
       </c>
       <c r="C20" s="5" t="n">
-        <v>-13.07633139713208</v>
+        <v>-11.53500358329368</v>
       </c>
       <c r="D20" s="5" t="n">
-        <v>-14.69645299864547</v>
+        <v>-14.72156788564801</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>-17.63735317371933</v>
+        <v>-17.89346439509779</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>-0.5756438710216651</v>
+        <v>-0.2107293982700706</v>
       </c>
       <c r="G20" s="6" t="n">
-        <v>-0.2550180921795668</v>
+        <v>-0.2277315302948136</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>-0.4208653998689896</v>
+        <v>-0.4272749316215932</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>-0.404954961914997</v>
+        <v>-0.4088308901868659</v>
       </c>
       <c r="J20" s="6" t="n">
-        <v>-0.0157270673775377</v>
+        <v>-0.002315833750184888</v>
       </c>
     </row>
     <row r="21">
@@ -1192,28 +1192,28 @@
         </is>
       </c>
       <c r="C21" s="5" t="n">
-        <v>5.03992234297483</v>
+        <v>5.668114028117084</v>
       </c>
       <c r="D21" s="5" t="n">
-        <v>0.4806430099447556</v>
+        <v>1.494142349827823</v>
       </c>
       <c r="E21" s="5" t="n">
-        <v>-0.9453910049001936</v>
+        <v>-0.07214428593688033</v>
       </c>
       <c r="F21" s="5" t="n">
-        <v>13.85027496379346</v>
+        <v>13.62713895984272</v>
       </c>
       <c r="G21" s="6" t="n">
-        <v>0.114036423524996</v>
+        <v>0.1227658707031403</v>
       </c>
       <c r="H21" s="6" t="n">
-        <v>0.0174987176729706</v>
+        <v>0.05391431290832442</v>
       </c>
       <c r="I21" s="6" t="n">
-        <v>-0.02490905455995718</v>
+        <v>-0.00236860591547136</v>
       </c>
       <c r="J21" s="6" t="n">
-        <v>0.4770476588307246</v>
+        <v>0.4596439369459694</v>
       </c>
     </row>
     <row r="22">
@@ -1237,7 +1237,7 @@
         <v>-3.683149861439911</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>0.5248801412996995</v>
+        <v>0.524880141299694</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>-0.1996995071921637</v>
@@ -1249,7 +1249,7 @@
         <v>-0.07911654497853822</v>
       </c>
       <c r="J22" s="6" t="n">
-        <v>0.01301737461468658</v>
+        <v>0.01301737461468645</v>
       </c>
     </row>
     <row r="23">
@@ -1260,28 +1260,28 @@
         </is>
       </c>
       <c r="C23" s="5" t="n">
-        <v>-14.11675941736354</v>
+        <v>-14.18112225759062</v>
       </c>
       <c r="D23" s="5" t="n">
-        <v>-12.78664938998505</v>
+        <v>-12.96002212721688</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>-9.186658293792988</v>
+        <v>-9.445221961209036</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>-5.386346646032577</v>
+        <v>-5.404403147242927</v>
       </c>
       <c r="G23" s="6" t="n">
-        <v>-0.3011937480540075</v>
+        <v>-0.2983301549473602</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>-0.3455963074087275</v>
+        <v>-0.3475396662657025</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>-0.188243935891</v>
+        <v>-0.1881134643070532</v>
       </c>
       <c r="J23" s="6" t="n">
-        <v>-0.1223872445384197</v>
+        <v>-0.1235993025050614</v>
       </c>
     </row>
     <row r="24">
@@ -1292,28 +1292,28 @@
         </is>
       </c>
       <c r="C24" s="5" t="n">
-        <v>-3.435276108745754</v>
+        <v>-3.149597027933076</v>
       </c>
       <c r="D24" s="5" t="n">
-        <v>-2.590995747552349</v>
+        <v>-2.468566793533231</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>1.940364379790119</v>
+        <v>2.099166609849127</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>5.93756069655741</v>
+        <v>5.700793981329478</v>
       </c>
       <c r="G24" s="6" t="n">
-        <v>-0.08223331306779434</v>
+        <v>-0.07579994855372252</v>
       </c>
       <c r="H24" s="6" t="n">
-        <v>-0.07951827220830265</v>
+        <v>-0.08041742085184468</v>
       </c>
       <c r="I24" s="6" t="n">
-        <v>0.04535726804725027</v>
+        <v>0.04957235390178648</v>
       </c>
       <c r="J24" s="6" t="n">
-        <v>0.1584002848834385</v>
+        <v>0.1564506909174333</v>
       </c>
     </row>
     <row r="25">
@@ -1337,7 +1337,7 @@
         <v>-7.698671359404313</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>-0.1652489415379044</v>
+        <v>-0.1652489415378988</v>
       </c>
       <c r="G25" s="6" t="n">
         <v>-0.1976784252430229</v>
@@ -1349,7 +1349,7 @@
         <v>-0.1961618694401543</v>
       </c>
       <c r="J25" s="6" t="n">
-        <v>-0.004547126568022348</v>
+        <v>-0.004547126568022196</v>
       </c>
     </row>
     <row r="26">
@@ -1360,28 +1360,28 @@
         </is>
       </c>
       <c r="C26" s="5" t="n">
-        <v>-10.03513807347269</v>
+        <v>-10.18735661934436</v>
       </c>
       <c r="D26" s="5" t="n">
-        <v>-6.267576361645609</v>
+        <v>-5.627801742827164</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>-12.50205015357604</v>
+        <v>-12.28071986518829</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>-4.811463078740895</v>
+        <v>-5.163439665512144</v>
       </c>
       <c r="G26" s="6" t="n">
-        <v>-0.3233181730549622</v>
+        <v>-0.3314794069491079</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>-0.1758040247165593</v>
+        <v>-0.1544702613927893</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>-0.2967661941941394</v>
+        <v>-0.3013607167171997</v>
       </c>
       <c r="J26" s="6" t="n">
-        <v>-0.1235207512038258</v>
+        <v>-0.134326029279296</v>
       </c>
     </row>
     <row r="27">
@@ -1392,28 +1392,28 @@
         </is>
       </c>
       <c r="C27" s="5" t="n">
-        <v>-1.202953674147775</v>
+        <v>-1.405787586448239</v>
       </c>
       <c r="D27" s="5" t="n">
-        <v>3.500117874133889</v>
+        <v>3.724568685704602</v>
       </c>
       <c r="E27" s="5" t="n">
-        <v>-2.611389203865774</v>
+        <v>-2.959534107917487</v>
       </c>
       <c r="F27" s="5" t="n">
-        <v>4.812236835028575</v>
+        <v>4.102992849238047</v>
       </c>
       <c r="G27" s="6" t="n">
-        <v>-0.04278226513390074</v>
+        <v>-0.0435190396656949</v>
       </c>
       <c r="H27" s="6" t="n">
-        <v>0.1145154907976898</v>
+        <v>0.1216048934632635</v>
       </c>
       <c r="I27" s="6" t="n">
-        <v>-0.07074462113122992</v>
+        <v>-0.08032424633507791</v>
       </c>
       <c r="J27" s="6" t="n">
-        <v>0.1433092518259446</v>
+        <v>0.1219347642062402</v>
       </c>
     </row>
     <row r="28">
@@ -1437,7 +1437,7 @@
         <v>-5.252779111834871</v>
       </c>
       <c r="F28" s="5" t="n">
-        <v>-0.9981750077230511</v>
+        <v>-0.9981750077230567</v>
       </c>
       <c r="G28" s="6" t="n">
         <v>-0.1937036423572263</v>
@@ -1449,7 +1449,7 @@
         <v>-0.1434501215406956</v>
       </c>
       <c r="J28" s="6" t="n">
-        <v>-0.02813102473409966</v>
+        <v>-0.0281310247340998</v>
       </c>
     </row>
     <row r="29">
@@ -1460,28 +1460,28 @@
         </is>
       </c>
       <c r="C29" s="5" t="n">
-        <v>-9.718560218348657</v>
+        <v>-9.824301584769149</v>
       </c>
       <c r="D29" s="5" t="n">
-        <v>-4.420997402480737</v>
+        <v>-4.491507669443019</v>
       </c>
       <c r="E29" s="5" t="n">
-        <v>-7.520469167189464</v>
+        <v>-7.487408189884451</v>
       </c>
       <c r="F29" s="5" t="n">
-        <v>-3.512445703480239</v>
+        <v>-3.343442605888649</v>
       </c>
       <c r="G29" s="6" t="n">
-        <v>-0.2434461918315877</v>
+        <v>-0.2446022233220607</v>
       </c>
       <c r="H29" s="6" t="n">
-        <v>-0.1345650374261297</v>
+        <v>-0.1354419301308257</v>
       </c>
       <c r="I29" s="6" t="n">
-        <v>-0.1988401783494458</v>
+        <v>-0.1974519480868202</v>
       </c>
       <c r="J29" s="6" t="n">
-        <v>-0.09407361146017038</v>
+        <v>-0.09033596051459025</v>
       </c>
     </row>
     <row r="30">
@@ -1492,28 +1492,28 @@
         </is>
       </c>
       <c r="C30" s="5" t="n">
-        <v>-5.059379091639865</v>
+        <v>-5.544858316308396</v>
       </c>
       <c r="D30" s="5" t="n">
-        <v>0.2466785527953516</v>
+        <v>-0.1044307196588568</v>
       </c>
       <c r="E30" s="5" t="n">
-        <v>-2.900049933162885</v>
+        <v>-2.844881685870535</v>
       </c>
       <c r="F30" s="5" t="n">
-        <v>1.181755077388702</v>
+        <v>1.348862530986814</v>
       </c>
       <c r="G30" s="6" t="n">
-        <v>-0.1367111905750302</v>
+        <v>-0.1452594374011126</v>
       </c>
       <c r="H30" s="6" t="n">
-        <v>0.008230082418896912</v>
+        <v>-0.002897422097648894</v>
       </c>
       <c r="I30" s="6" t="n">
-        <v>-0.08154151848700356</v>
+        <v>-0.07909652817316737</v>
       </c>
       <c r="J30" s="6" t="n">
-        <v>0.03389436083492565</v>
+        <v>0.03926762741753526</v>
       </c>
     </row>
     <row r="31">
